--- a/biology/Médecine/Université_nationale_de_médecine_de_Kharkiv/Université_nationale_de_médecine_de_Kharkiv.xlsx
+++ b/biology/Médecine/Université_nationale_de_médecine_de_Kharkiv/Université_nationale_de_médecine_de_Kharkiv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_de_m%C3%A9decine_de_Kharkiv</t>
+          <t>Université_nationale_de_médecine_de_Kharkiv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université nationale de médecine de Kharkiv -  UNMKh (en russe : Харьковский национальный медицинский университет, en ukrainien : Харківський національний медичний університет) est une université qui se trouve à Kharkiv, à l'Est de l'Ukraine. En janvier 1805 a été fondée l'université de Kharkiv (la deuxième université créée en Ukraine après l'université de Lviv), qui était formée de quatre facultés, dont la faculté de médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_de_m%C3%A9decine_de_Kharkiv</t>
+          <t>Université_nationale_de_médecine_de_Kharkiv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Appellations précédentes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1920-1921 — l'Académie d'État de médecine de Kharkiv.
 1921-1994 — l'Institut d'État de médecine de Kharkiv.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_de_m%C3%A9decine_de_Kharkiv</t>
+          <t>Université_nationale_de_médecine_de_Kharkiv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Structure de l'université</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'université est composée des 6 facultés suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université est composée des 6 facultés suivantes :
 la Faculté de médecine no 1
 la Faculté de médecine no 2
 la Faculté de médecine no 3, ou Faculté de pédiatrie
@@ -554,8 +570,43 @@
 la Faculté de stomatologie
 la Faculté de médecine pour étudiants étrangers
 Son bâtiment est inscrit au Registre national des monuments d'Ukraine sous le  numéro : 63-101-2307.
-Anciens étudiants
-Viktor Jdanov
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Université_nationale_de_médecine_de_Kharkiv</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_nationale_de_m%C3%A9decine_de_Kharkiv</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure de l'université</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anciens étudiants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Viktor Jdanov
 Valentin Grichtchenko
 Victor Skumin</t>
         </is>
